--- a/detailed_channel_info/SHK-1-a_CAEEL.xlsx
+++ b/detailed_channel_info/SHK-1-a_CAEEL.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16560" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -209,7 +209,7 @@
     <t>CURATOR:</t>
   </si>
   <si>
-    <t>vahidgh</t>
+    <t>vahidgh, gopal_sarma</t>
   </si>
 </sst>
 </file>
@@ -590,8 +590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
